--- a/plots/countries/plot data/Norway.xlsx
+++ b/plots/countries/plot data/Norway.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>4.9793052130019</v>
+        <v>5.06009699382854</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>2.96277903225216</v>
+        <v>2.9701973560216</v>
       </c>
     </row>
     <row r="5">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>14.8146753270646</v>
+        <v>14.8153607731788</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-11.774544167307</v>
+        <v>-10.5961266667611</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>2.67127750706415</v>
+        <v>2.67005284127983</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>4.9172816650584</v>
+        <v>4.99589184063369</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>2.31651156518374</v>
+        <v>2.3205927448219</v>
       </c>
     </row>
     <row r="14">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>13.6841698540823</v>
+        <v>13.6848553001504</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-12.8317598696374</v>
+        <v>-11.5714954234405</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>2.5600237520375</v>
+        <v>2.55879825334462</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>4.8901353439248</v>
+        <v>4.96771270763707</v>
       </c>
     </row>
     <row r="21">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>2.64712644502437</v>
+        <v>2.6488680530221</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>11.0538290380713</v>
+        <v>11.0543946509734</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-12.336513826048</v>
+        <v>-10.9978980118724</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>2.53913423109846</v>
+        <v>2.53635669645454</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>4.8707195319953</v>
+        <v>4.94842519510718</v>
       </c>
     </row>
     <row r="30">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>2.85230300151816</v>
+        <v>2.8512046249412</v>
       </c>
     </row>
     <row r="32">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>11.8375877864845</v>
+        <v>11.8383930658657</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-13.2317574048003</v>
+        <v>-12.4316101628269</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>2.54798069612969</v>
+        <v>2.54448896777693</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>4.8722294928506</v>
+        <v>4.95913756902081</v>
       </c>
     </row>
     <row r="39">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>2.97884292717102</v>
+        <v>2.9766137265607</v>
       </c>
     </row>
     <row r="41">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>12.1660415758383</v>
+        <v>12.1667414019698</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-12.0541409445633</v>
+        <v>-11.196724330161</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>2.53141358108091</v>
+        <v>2.52708945439528</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>4.9191963741014</v>
+        <v>5.00641756952333</v>
       </c>
     </row>
     <row r="48">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>2.8476814125306</v>
+        <v>2.8440297135534</v>
       </c>
     </row>
     <row r="50">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>12.0259960903854</v>
+        <v>12.0266713877719</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-14.530953901688</v>
+        <v>-14.1106386761143</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>2.55092792112119</v>
+        <v>2.54141730997712</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>4.9591228917246</v>
+        <v>5.04590612594559</v>
       </c>
     </row>
     <row r="57">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>3.33252779503558</v>
+        <v>3.3360462964836</v>
       </c>
     </row>
     <row r="59">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>11.921040801517</v>
+        <v>11.9214893224933</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-10.1112207475836</v>
+        <v>-9.86709990231346</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>2.45413780026658</v>
+        <v>2.44419624483366</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>4.910080110538</v>
+        <v>4.9893817803735</v>
       </c>
     </row>
     <row r="66">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>3.15813435208677</v>
+        <v>3.1687438748309</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>4.11391980201441</v>
+        <v>4.11372355450441</v>
       </c>
     </row>
     <row r="69">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>12.2323420644957</v>
+        <v>12.2324580418799</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-12.9358994813049</v>
+        <v>-12.9039275434985</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>2.41050582622576</v>
+        <v>2.39948100632309</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>4.8957188669409</v>
+        <v>4.97681827574438</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>4.82248618103991</v>
+        <v>4.82335948815141</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>3.28341704723426</v>
+        <v>3.2978204964402</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>4.13232582198555</v>
+        <v>4.13208268195305</v>
       </c>
     </row>
     <row r="78">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>12.5384962127669</v>
+        <v>12.5380285225511</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-14.2124542823049</v>
+        <v>-14.2444566669006</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>2.2249870172147</v>
+        <v>2.21307881291125</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>4.8909274784562</v>
+        <v>4.97344319179762</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>4.86508360651723</v>
+        <v>4.86874591678723</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>3.86380705244222</v>
+        <v>3.8830960848826</v>
       </c>
     </row>
     <row r="86">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>12.5949133962526</v>
+        <v>12.5932879432295</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-19.5989972209804</v>
+        <v>-19.7122064895042</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>2.163163207264</v>
+        <v>2.14714502858682</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>4.7407588041966</v>
+        <v>4.82441312569613</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>3.96861365619592</v>
+        <v>3.97693510946442</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>4.09331012887835</v>
+        <v>4.1105565653836</v>
       </c>
     </row>
     <row r="95">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>12.8866548007973</v>
+        <v>12.8847857505356</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-16.9719913406124</v>
+        <v>-16.9798617163244</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>2.27606304301534</v>
+        <v>2.25614036989049</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>4.6773617398438</v>
+        <v>4.76281859579055</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>4.41222164896767</v>
+        <v>4.42702523298967</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>3.74891508893303</v>
+        <v>3.7660708716176</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>3.53612807947163</v>
+        <v>3.53585334497163</v>
       </c>
     </row>
     <row r="105">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>12.4925823405229</v>
+        <v>12.4904331368873</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-21.7363868064836</v>
+        <v>-21.6142428505796</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>2.21299892337087</v>
+        <v>2.19032737420391</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>4.6609692978675</v>
+        <v>4.7435166466111</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>4.72290450769555</v>
+        <v>4.74785709704755</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>3.23162874484961</v>
+        <v>3.2497575480341</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>3.39712931521483</v>
+        <v>3.39686999287883</v>
       </c>
     </row>
     <row r="114">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>11.6356812187231</v>
+        <v>11.6322479126876</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-23.1203506103083</v>
+        <v>-22.8295034529993</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>2.10504009164138</v>
+        <v>2.08141226086609</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>4.7421435303359</v>
+        <v>4.82695565585246</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>4.59049210576299</v>
+        <v>4.62523822716399</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>3.19291600122959</v>
+        <v>3.2118350239833</v>
       </c>
     </row>
     <row r="122">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>12.9535126534875</v>
+        <v>12.9545811391516</v>
       </c>
     </row>
     <row r="124">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>11.0602327302823</v>
+        <v>11.0575326219355</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-22.3395781957839</v>
+        <v>-21.871718500692</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>2.10008305451046</v>
+        <v>2.07630506106449</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>4.7042030624712</v>
+        <v>4.79023619012586</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>4.31663619410837</v>
+        <v>4.35932045685087</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>3.10309708247912</v>
+        <v>3.1229219503409</v>
       </c>
     </row>
     <row r="131">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>13.0454027222238</v>
+        <v>13.0474282874638</v>
       </c>
     </row>
     <row r="133">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>11.7828279657564</v>
+        <v>11.7799495764599</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-22.8484553762881</v>
+        <v>-22.175037582397</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>2.10485355208552</v>
+        <v>2.07851442803849</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>4.7231200632387</v>
+        <v>4.80844854231974</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>3.84040280315622</v>
+        <v>3.87580870319072</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>3.03741843944917</v>
+        <v>3.0573272056306</v>
       </c>
     </row>
     <row r="140">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>11.3266982136384</v>
+        <v>11.3257000768914</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-24.8073503462606</v>
+        <v>-24.1489619157444</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>2.00197618459639</v>
+        <v>1.97541914605976</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>4.633840537794</v>
+        <v>4.71569134749756</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>4.02567571764967</v>
+        <v>4.06198820268467</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>2.94468164988898</v>
+        <v>2.9646093225422</v>
       </c>
     </row>
     <row r="149">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>10.5870934136158</v>
+        <v>10.5879474864163</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-19.9281432752731</v>
+        <v>-19.255499823043</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>2.02557368264427</v>
+        <v>1.99911232946144</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>4.6372399014294</v>
+        <v>4.71684245186275</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>3.76069379011702</v>
+        <v>3.79454757366102</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>4.36554883868036</v>
+        <v>4.3871718117129</v>
       </c>
     </row>
     <row r="158">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>10.5552780990913</v>
+        <v>10.555133550711</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-21.4555954548319</v>
+        <v>-20.7801884957991</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>2.01196161678736</v>
+        <v>1.97980060256297</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>4.6143999315391</v>
+        <v>4.69456051636454</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>3.50008135008593</v>
+        <v>3.53355840309343</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>3.62380054189325</v>
+        <v>3.6448717247304</v>
       </c>
     </row>
     <row r="167">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>10.508791568312</v>
+        <v>10.5088909180792</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-26.4066545694264</v>
+        <v>-25.7432428794094</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>1.93548002876938</v>
+        <v>1.90408992740308</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>4.5764056085519</v>
+        <v>4.65810736829096</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>3.75207305811407</v>
+        <v>3.78574045224307</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>2.912537123582</v>
+        <v>2.9347025422886</v>
       </c>
     </row>
     <row r="176">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>8.13801741519617</v>
+        <v>8.13826977456182</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-24.9978704326273</v>
+        <v>-24.3730768585864</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>1.89829672119236</v>
+        <v>1.86883642925621</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>4.4868751801594</v>
+        <v>4.56549069091802</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>4.01724986322889</v>
+        <v>4.07539537443578</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>3.05666793980932</v>
+        <v>3.07918106827</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>3.36615950725938</v>
+        <v>3.36573081225598</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>14.7904809596303</v>
+        <v>14.7899036735369</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>13.9301414251921</v>
+        <v>13.9290963357496</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>8.88709873741813</v>
+        <v>8.88740695314089</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-26.289639498089</v>
+        <v>-25.6149724538507</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>2.0211796525694</v>
+        <v>1.99071463684481</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>4.4930733763356</v>
+        <v>4.57059200147403</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>3.45434196309686</v>
+        <v>3.50663670531766</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>3.01913394156573</v>
+        <v>3.0402898685053</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>3.1863670735061</v>
+        <v>3.18588117357729</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>14.376469822359</v>
+        <v>14.3729988595257</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>13.9922699398183</v>
+        <v>13.9871661743724</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>9.01662909842841</v>
+        <v>9.01037889815563</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-25.5600608578474</v>
+        <v>-24.9573170231098</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>2.0516206678382</v>
+        <v>2.02433833618025</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>4.5028620136217</v>
+        <v>4.57844462621082</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>3.36102147407217</v>
+        <v>3.40985257606826</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>2.99593738990839</v>
+        <v>3.0192956428159</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>3.05497282805446</v>
+        <v>3.05240090231916</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>14.0550856368112</v>
+        <v>14.0496672497942</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>14.1318518562611</v>
+        <v>14.1340527166448</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>8.93711038689998</v>
+        <v>8.92404263904053</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-24.6478364432461</v>
+        <v>-24.0828139232534</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>1.9817154689313</v>
+        <v>1.94948691871733</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>4.5466380155045</v>
+        <v>4.62287330249277</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>3.28817445132734</v>
+        <v>3.32092710887424</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>2.95772654439616</v>
+        <v>2.9798744232384</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>3.15323472535253</v>
+        <v>3.14892833288293</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>14.111528638701</v>
+        <v>14.1118729847918</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>14.1842718497074</v>
+        <v>14.1876397319624</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>9.04743968413863</v>
+        <v>9.03130816854751</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-21.2020324518689</v>
+        <v>-20.7045639036494</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>1.96057862046991</v>
+        <v>1.92545364310749</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>4.6470205431123</v>
+        <v>4.72468056382207</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>3.12571222000806</v>
+        <v>3.14573957062216</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>2.541407629472</v>
+        <v>2.5632628501495</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>2.93305196099296</v>
+        <v>2.92742026800126</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>14.8038581779667</v>
+        <v>14.8042225949183</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>14.5447782280527</v>
+        <v>14.5493065244399</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>9.08373597081246</v>
+        <v>9.0701006796554</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-18.8599224549115</v>
+        <v>-18.518921760919</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.94087459991545</v>
+        <v>1.91164846354031</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>4.7048599895584</v>
+        <v>4.78686257332365</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>3.03104213121996</v>
+        <v>3.08033382903375</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>2.83094582925462</v>
+        <v>2.85456196262605</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>2.91367443073551</v>
+        <v>2.89839495207621</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>15.2972305339364</v>
+        <v>15.2972280019931</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>14.3410171878978</v>
+        <v>14.3292821838021</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>9.16926585057945</v>
+        <v>9.16242047578335</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-15.0514553086133</v>
+        <v>-14.8141606471524</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.85302661168974</v>
+        <v>1.82349794620199</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>4.7477348118769</v>
+        <v>4.83319772172756</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>3.3449257207562</v>
+        <v>3.39227808189616</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>2.73914981845256</v>
+        <v>2.7621393921048</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>2.88271726778301</v>
+        <v>2.86546094257821</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>14.8469150905786</v>
+        <v>14.8465625487148</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>13.8365662826562</v>
+        <v>13.8241333837382</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>9.08184520754703</v>
+        <v>9.06572713790137</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-13.6868907597848</v>
+        <v>-13.3610649527492</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.79577968793896</v>
+        <v>1.76332533651214</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>4.7231766250297</v>
+        <v>4.80349513467379</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>3.246767476073</v>
+        <v>3.30124923927074</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>2.59007200719173</v>
+        <v>2.61066035663625</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>2.99237568908156</v>
+        <v>2.98534882248156</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>15.1899261127171</v>
+        <v>15.1900025285217</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>13.0502357067862</v>
+        <v>13.0310182361411</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>9.06580193917251</v>
+        <v>9.05066163981768</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-15.964340035614</v>
+        <v>-15.618587570098</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.71952226731508</v>
+        <v>1.70151694978795</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>4.7364281333</v>
+        <v>4.80904837682179</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>3.26606127936868</v>
+        <v>3.33311727732884</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>2.43639301398471</v>
+        <v>2.49010146045251</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>3.09340412227723</v>
+        <v>3.07826580883933</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>15.0823290952354</v>
+        <v>15.0809111995674</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>13.2893668244192</v>
+        <v>13.2661349439787</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>9.08726237289067</v>
+        <v>9.10389600869634</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-13.0049133498079</v>
+        <v>-12.6503347830526</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.67961758054826</v>
+        <v>1.6586074788974</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>4.6833461992555</v>
+        <v>4.75861003374772</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>3.03608747212702</v>
+        <v>3.1363723611529</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>1.93518584060133</v>
+        <v>1.98283534156833</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>2.88318450039965</v>
+        <v>2.86567215943795</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>14.931541844423</v>
+        <v>14.9315734454216</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>12.7737862026627</v>
+        <v>12.7276869630125</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>9.10993572673936</v>
+        <v>9.11347710929368</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-8.75282367963336</v>
+        <v>-8.37628345719864</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>1.56687734392913</v>
+        <v>1.54597111934985</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>4.6983733651023</v>
+        <v>4.77174001187516</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>3.13175761527903</v>
+        <v>3.22732367253668</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>1.83910061448146</v>
+        <v>1.86292917998676</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>2.66957863633559</v>
+        <v>2.63637816888485</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>11.9842045107431</v>
+        <v>11.9394988966643</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>9.14921609987445</v>
+        <v>9.18376318074693</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-16.115159787602</v>
+        <v>-15.505582480811</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>1.55543795637789</v>
+        <v>1.52648088638665</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>4.7500403831</v>
+        <v>4.82554132643208</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>3.23864494197573</v>
+        <v>3.29606485870858</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>2.01279236141935</v>
+        <v>2.05442935336909</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>2.86466955848299</v>
+        <v>2.83984451580641</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>13.2551205203843</v>
+        <v>13.2589810240477</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>12.2704535522032</v>
+        <v>12.2099969558787</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>9.27919003187093</v>
+        <v>9.33642569062584</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-11.7425747770526</v>
+        <v>-10.1131512583042</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.45405903663757</v>
+        <v>1.4225848188232</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>4.642650462161</v>
+        <v>4.716147599409</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>3.11731971403878</v>
+        <v>3.14401831224412</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>2.01775700156884</v>
+        <v>2.06772331859855</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>2.8198419680961</v>
+        <v>2.79845233134176</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>12.6944025131118</v>
+        <v>12.7061568675819</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>12.708570183748</v>
+        <v>12.6744981110148</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>9.32352560516974</v>
+        <v>9.3568796006313</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-13.7460969293199</v>
+        <v>-8.53378815660131</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.43086897946683</v>
+        <v>1.3986260394195</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>4.5296337110525</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.36450597260107</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.9227488369972</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2.45929008825412</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>12.3451224517607</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>11.9792318442835</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>8.61162084293481</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-15.1041720056837</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.35491312370195</v>
       </c>
     </row>
   </sheetData>
